--- a/Extract_for_python/test_2019/2023_Clement.xlsx
+++ b/Extract_for_python/test_2019/2023_Clement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\Info fun\Compta - pipenv\Extract_for_python\test_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3680C8-494D-4012-8B02-61B5123754C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B26C55-3C0A-4CCD-90C5-EE1B394B92B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="66">
   <si>
     <t>CCP - Clément, LA - Clément, LJ - Clément, PEE - Auchan, PEE - CEA
-Du 01/01/2023 au 19/03/2023
+Du 01/01/2023 au 30/03/2023
 Classement des opérations par date</t>
   </si>
   <si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>D04 - Loisir &gt; 10 - F1 TV</t>
+  </si>
+  <si>
+    <t>D03 - Achat en Ligne &gt; 02 - Steam</t>
+  </si>
+  <si>
+    <t>D04 - Loisir &gt; 17 - Aquarium</t>
+  </si>
+  <si>
+    <t>D20 - Hébergement &gt; 01 - AirBnb</t>
   </si>
   <si>
     <t>1 / 1</t>
@@ -590,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,7 +626,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2">
-        <v>45004</v>
+        <v>45015</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1464,7 +1473,7 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>44943</v>
       </c>
@@ -1488,7 +1497,7 @@
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>44944</v>
       </c>
@@ -1512,7 +1521,7 @@
       </c>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>44944</v>
       </c>
@@ -1536,7 +1545,7 @@
       </c>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>44945</v>
       </c>
@@ -1560,7 +1569,7 @@
       </c>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>44945</v>
       </c>
@@ -1584,7 +1593,7 @@
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>44945</v>
       </c>
@@ -1608,7 +1617,7 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>44945</v>
       </c>
@@ -1632,7 +1641,7 @@
       </c>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>44948</v>
       </c>
@@ -1656,7 +1665,7 @@
       </c>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44948</v>
       </c>
@@ -1680,7 +1689,7 @@
       </c>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>44949</v>
       </c>
@@ -1704,7 +1713,7 @@
       </c>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>44950</v>
       </c>
@@ -1728,7 +1737,7 @@
       </c>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>44950</v>
       </c>
@@ -1752,7 +1761,7 @@
       </c>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>44951</v>
       </c>
@@ -1776,7 +1785,7 @@
       </c>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>44952</v>
       </c>
@@ -1800,7 +1809,7 @@
       </c>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>44953</v>
       </c>
@@ -1824,7 +1833,7 @@
       </c>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>44953</v>
       </c>
@@ -1848,7 +1857,7 @@
       </c>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>44953</v>
       </c>
@@ -1872,7 +1881,7 @@
       </c>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>44953</v>
       </c>
@@ -2998,7 +3007,7 @@
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="7">
-        <v>16.53</v>
+        <v>7.51</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="8" t="s">
@@ -3560,35 +3569,491 @@
       </c>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="1"/>
+    <row r="124" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="5">
+        <v>45002</v>
+      </c>
       <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
+      <c r="C124" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F124" s="1"/>
       <c r="G124" s="7">
-        <v>5692.39</v>
-      </c>
-      <c r="H124" s="7">
-        <v>3105.67</v>
-      </c>
-      <c r="I124" s="1"/>
+        <v>27.65</v>
+      </c>
+      <c r="H124" s="1"/>
+      <c r="I124" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="1"/>
+    <row r="125" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="5">
+        <v>45003</v>
+      </c>
       <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
+      <c r="C125" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="9" t="s">
+      <c r="G125" s="7">
+        <v>5.99</v>
+      </c>
+      <c r="H125" s="1"/>
+      <c r="I125" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="5">
+        <v>45003</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
+      <c r="D126" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="1"/>
+      <c r="G126" s="7">
+        <v>5.99</v>
+      </c>
+      <c r="H126" s="1"/>
+      <c r="I126" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="5">
+        <v>45004</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="1"/>
+      <c r="G127" s="7">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="H127" s="1"/>
+      <c r="I127" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="5">
+        <v>45005</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="1"/>
+      <c r="G128" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="H128" s="1"/>
+      <c r="I128" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="5">
+        <v>45005</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="H129" s="1"/>
+      <c r="I129" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J129" s="1"/>
+    </row>
+    <row r="130" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="5">
+        <v>45005</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="1"/>
+      <c r="G130" s="7">
+        <v>24.13</v>
+      </c>
+      <c r="H130" s="1"/>
+      <c r="I130" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="5">
+        <v>45005</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="7">
+        <v>34.64</v>
+      </c>
+      <c r="H131" s="1"/>
+      <c r="I131" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J131" s="1"/>
+    </row>
+    <row r="132" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="5">
+        <v>45008</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="1"/>
+      <c r="G132" s="7">
+        <v>75.8</v>
+      </c>
+      <c r="H132" s="1"/>
+      <c r="I132" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="5">
+        <v>45009</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="7">
+        <v>150</v>
+      </c>
+      <c r="H133" s="1"/>
+      <c r="I133" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A134" s="5">
+        <v>45010</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="1"/>
+      <c r="G134" s="7">
+        <v>157.72999999999999</v>
+      </c>
+      <c r="H134" s="1"/>
+      <c r="I134" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="5">
+        <v>45011</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="7">
+        <v>57.11</v>
+      </c>
+      <c r="H135" s="1"/>
+      <c r="I135" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A136" s="5">
+        <v>45012</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="7">
+        <v>130</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A137" s="5">
+        <v>45012</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="1"/>
+      <c r="G137" s="7">
+        <v>650</v>
+      </c>
+      <c r="H137" s="1"/>
+      <c r="I137" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A138" s="5">
+        <v>45012</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="H138" s="1"/>
+      <c r="I138" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="5">
+        <v>45012</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="1"/>
+      <c r="G139" s="7">
+        <v>40.369999999999997</v>
+      </c>
+      <c r="H139" s="1"/>
+      <c r="I139" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A140" s="5">
+        <v>45013</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="1"/>
+      <c r="G140" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="H140" s="1"/>
+      <c r="I140" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="5">
+        <v>45013</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="1"/>
+      <c r="G141" s="7">
+        <v>14.9</v>
+      </c>
+      <c r="H141" s="1"/>
+      <c r="I141" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J141" s="1"/>
+    </row>
+    <row r="142" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A142" s="5">
+        <v>45014</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" s="7">
+        <v>29.99</v>
+      </c>
+      <c r="H142" s="1"/>
+      <c r="I142" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="7">
+        <v>6999.63</v>
+      </c>
+      <c r="H143" s="7">
+        <v>3235.67</v>
+      </c>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
